--- a/biology/Botanique/Adrien_de_Jussieu/Adrien_de_Jussieu.xlsx
+++ b/biology/Botanique/Adrien_de_Jussieu/Adrien_de_Jussieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adrien Henri de Jussieu, né à Paris le 23 décembre 1797 et mort à Paris le 29 juin 1853, est un botaniste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d'Antoine-Laurent de Jussieu. 
 Après des études de médecine à Paris (1824), il remplace son père à la chaire de botanique du Jardin des Plantes (1826). Sa thèse porte sur les Euphorbiacées : De euphorbiacearum generibus medicisque earumdem viribus tentamen. Elle est suivie de nombreux travaux sur les Rutacées, les Méliacées, les Malpighiacées…
@@ -546,7 +560,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Famille de Jussieu.</t>
         </is>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1825 : Monographie générique des rutacées
 1830 : Mémoire sur le groupe des méliacées
